--- a/SOUN.xlsx
+++ b/SOUN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7E9E14-CB89-49B6-A20D-B60B9CD031CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F0F4F3-6489-4175-8FED-EBEDE7E9C064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26790" yWindow="705" windowWidth="26175" windowHeight="13305" activeTab="1" xr2:uid="{388E8CDF-D825-4116-AD94-A848451F8B3D}"/>
+    <workbookView xWindow="46870" yWindow="2910" windowWidth="25750" windowHeight="13240" xr2:uid="{388E8CDF-D825-4116-AD94-A848451F8B3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Price</t>
   </si>
@@ -130,6 +130,18 @@
   </si>
   <si>
     <t>SoundHound</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
   </si>
 </sst>
 </file>
@@ -230,16 +242,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>17318</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>61111</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>30307</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>17318</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>61111</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127348</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -254,8 +266,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7663295" y="30307"/>
-          <a:ext cx="0" cy="3333750"/>
+          <a:off x="10571456" y="0"/>
+          <a:ext cx="0" cy="3455624"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -600,11 +612,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9717194D-9671-44D3-8764-98556B306F2F}">
   <dimension ref="B2:N10"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>30</v>
       </c>
@@ -612,42 +624,42 @@
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L3" t="s">
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <f>325.997277+32.735408</f>
-        <v>358.732685</v>
+        <f>375.15089+32.535408</f>
+        <v>407.68629800000002</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L4" t="s">
         <v>2</v>
       </c>
       <c r="M4" s="2">
         <f>+M2*M3</f>
-        <v>5739.7229600000001</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+        <v>6930.667066</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L5" t="s">
         <v>3</v>
       </c>
       <c r="M5" s="2">
-        <v>200.15600000000001</v>
+        <v>230.34</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L6" t="s">
         <v>4</v>
       </c>
@@ -655,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L7" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="2">
         <f>+M4-M5+M6</f>
-        <v>5539.5669600000001</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+        <v>6700.3270659999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L10" t="s">
         <v>29</v>
       </c>
@@ -679,28 +691,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D72AB54-66BD-49B2-8A44-55A8BFBB3925}">
-  <dimension ref="A1:AE17"/>
+  <dimension ref="A1:AJ17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V14" sqref="V14"/>
+      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="3"/>
+    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="9.1796875" style="3"/>
+    <col min="15" max="19" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
@@ -737,63 +750,75 @@
       <c r="N2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R2">
+      <c r="O2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2">
         <v>2021</v>
       </c>
-      <c r="S2">
-        <f>+R2+1</f>
+      <c r="X2">
+        <f>+W2+1</f>
         <v>2022</v>
       </c>
-      <c r="T2">
-        <f t="shared" ref="T2:AE2" si="0">+S2+1</f>
+      <c r="Y2">
+        <f t="shared" ref="Y2:AJ2" si="0">+X2+1</f>
         <v>2023</v>
       </c>
-      <c r="U2">
+      <c r="Z2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="V2">
+      <c r="AA2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="W2">
+      <c r="AB2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="X2">
+      <c r="AC2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="Y2">
+      <c r="AD2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="Z2">
+      <c r="AE2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AA2">
+      <c r="AF2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="AB2">
+      <c r="AG2">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="AC2">
+      <c r="AH2">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="AD2">
+      <c r="AI2">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="AE2">
+      <c r="AJ2">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
@@ -824,21 +849,36 @@
         <v>13.462</v>
       </c>
       <c r="M3" s="7">
-        <v>25.1</v>
+        <v>25.094000000000001</v>
       </c>
       <c r="N3" s="7">
-        <f>83.5-M3-L3-K3</f>
-        <v>33.344000000000001</v>
-      </c>
-      <c r="U3" s="6">
+        <f>84.693-M3-L3-K3</f>
+        <v>34.542999999999999</v>
+      </c>
+      <c r="O3" s="7">
+        <v>29.129000000000001</v>
+      </c>
+      <c r="P3" s="7">
+        <v>42.683</v>
+      </c>
+      <c r="Q3" s="7">
+        <f>+P3+5</f>
+        <v>47.683</v>
+      </c>
+      <c r="R3" s="7">
+        <f>+Q3+5</f>
+        <v>52.683</v>
+      </c>
+      <c r="S3" s="7"/>
+      <c r="Z3" s="6">
         <f>SUM(K3:N3)</f>
-        <v>83.5</v>
-      </c>
-      <c r="V3" s="6">
+        <v>84.692999999999998</v>
+      </c>
+      <c r="AA3" s="6">
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
@@ -868,17 +908,31 @@
       <c r="L4" s="5">
         <v>4.9800000000000004</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M4" s="5">
+        <v>12.901</v>
+      </c>
+      <c r="N4" s="5">
+        <f>43.309-M4-L4-K4</f>
+        <v>20.758999999999997</v>
+      </c>
+      <c r="O4" s="5">
+        <v>18.510999999999999</v>
+      </c>
+      <c r="P4" s="5">
+        <v>26.021000000000001</v>
+      </c>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+    </row>
+    <row r="5" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:L5" si="1">+E3-E4</f>
+        <f t="shared" ref="E5:N5" si="1">+E3-E4</f>
         <v>8.6029999999999998</v>
       </c>
       <c r="F5" s="5">
@@ -909,10 +963,27 @@
         <f t="shared" si="1"/>
         <v>8.4819999999999993</v>
       </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M5" s="5">
+        <f t="shared" si="1"/>
+        <v>12.193000000000001</v>
+      </c>
+      <c r="N5" s="5">
+        <f t="shared" si="1"/>
+        <v>13.784000000000002</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" ref="O5" si="2">+O3-O4</f>
+        <v>10.618000000000002</v>
+      </c>
+      <c r="P5" s="5">
+        <f>+P3-P4</f>
+        <v>16.661999999999999</v>
+      </c>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+    </row>
+    <row r="6" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
@@ -942,10 +1013,24 @@
       <c r="L6" s="5">
         <v>5.6550000000000002</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M6" s="5">
+        <v>8.3629999999999995</v>
+      </c>
+      <c r="N6" s="5">
+        <f>29.126-M6-L6-K6</f>
+        <v>9.5660000000000007</v>
+      </c>
+      <c r="O6" s="5">
+        <v>12.007</v>
+      </c>
+      <c r="P6" s="5">
+        <v>15.837</v>
+      </c>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+    </row>
+    <row r="7" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
@@ -975,10 +1060,24 @@
       <c r="L7" s="5">
         <v>15.738</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M7" s="5">
+        <v>19.545000000000002</v>
+      </c>
+      <c r="N7" s="5">
+        <f>70.555-M7-L7-K7</f>
+        <v>20.394000000000005</v>
+      </c>
+      <c r="O7" s="5">
+        <v>24.756</v>
+      </c>
+      <c r="P7" s="5">
+        <v>25.805</v>
+      </c>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+    </row>
+    <row r="8" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>26</v>
       </c>
@@ -1008,92 +1107,152 @@
       <c r="L8" s="5">
         <v>9.5350000000000001</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M8" s="5">
+        <v>17.030999999999999</v>
+      </c>
+      <c r="N8" s="5">
+        <f>53.27-M8-L8-K8</f>
+        <v>16.437000000000005</v>
+      </c>
+      <c r="O8" s="5">
+        <v>18.407</v>
+      </c>
+      <c r="P8" s="5">
+        <v>18.23</v>
+      </c>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+    </row>
+    <row r="9" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5">
-        <f t="shared" ref="E9:L9" si="2">+E8+E7+E6</f>
+        <f t="shared" ref="E9:L9" si="3">+E8+E7+E6</f>
         <v>35.674999999999997</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35.698999999999998</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26.349</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23.238</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.207999999999998</v>
       </c>
       <c r="J9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27.448999999999998</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30.686999999999998</v>
       </c>
       <c r="L9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30.928000000000001</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M9" s="5">
+        <f t="shared" ref="M9:R9" si="4">+M8+M7+M6</f>
+        <v>44.939</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" si="4"/>
+        <v>46.397000000000013</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="4"/>
+        <v>55.169999999999995</v>
+      </c>
+      <c r="P9" s="5">
+        <f t="shared" si="4"/>
+        <v>59.872</v>
+      </c>
+      <c r="Q9" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="5"/>
+    </row>
+    <row r="10" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5">
-        <f t="shared" ref="E10:L10" si="3">+E5-E9</f>
+        <f t="shared" ref="E10:L10" si="5">+E5-E9</f>
         <v>-27.071999999999996</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-28.952999999999999</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-21.618000000000002</v>
       </c>
       <c r="H10" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-16.317</v>
       </c>
       <c r="I10" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-14.529999999999998</v>
       </c>
       <c r="J10" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-14.212999999999999</v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-23.761999999999997</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-22.446000000000002</v>
       </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="14" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M10" s="5">
+        <f t="shared" ref="M10:R10" si="6">+M5-M9</f>
+        <v>-32.745999999999995</v>
+      </c>
+      <c r="N10" s="5">
+        <f t="shared" si="6"/>
+        <v>-32.613000000000014</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" si="6"/>
+        <v>-44.551999999999992</v>
+      </c>
+      <c r="P10" s="5">
+        <f t="shared" si="6"/>
+        <v>-43.21</v>
+      </c>
+      <c r="Q10" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="5"/>
+    </row>
+    <row r="14" spans="1:36" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
         <v>27</v>
       </c>
@@ -1104,35 +1263,46 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="11">
-        <f>+I3/E3-1</f>
+        <f t="shared" ref="I14:P14" si="7">+I3/E3-1</f>
         <v>0.18612551403540145</v>
       </c>
       <c r="J14" s="11">
-        <f>+J3/F3-1</f>
+        <f t="shared" si="7"/>
         <v>0.80475739395853063</v>
       </c>
       <c r="K14" s="11">
-        <f>+K3/G3-1</f>
+        <f t="shared" si="7"/>
         <v>0.72864171760846874</v>
       </c>
       <c r="L14" s="11">
-        <f>+L3/H3-1</f>
+        <f t="shared" si="7"/>
         <v>0.53833847560278825</v>
       </c>
       <c r="M14" s="11">
-        <f>+M3/I3-1</f>
-        <v>0.89176967138981</v>
+        <f t="shared" si="7"/>
+        <v>0.89131745553210728</v>
       </c>
       <c r="N14" s="11">
-        <f>+N3/J3-1</f>
-        <v>0.94459672245873949</v>
-      </c>
-      <c r="V14" s="12">
-        <f>+V3/U3-1</f>
-        <v>0.9760479041916168</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>1.0145214906397624</v>
+      </c>
+      <c r="O14" s="11">
+        <f t="shared" si="7"/>
+        <v>1.5124202173538039</v>
+      </c>
+      <c r="P14" s="11">
+        <f t="shared" si="7"/>
+        <v>2.1706284355964938</v>
+      </c>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="AA14" s="12">
+        <f>+AA3/Z3-1</f>
+        <v>0.9482129573872693</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>28</v>
       </c>
@@ -1151,6 +1321,21 @@
       <c r="L17" s="5">
         <f>-40.44-K17</f>
         <v>-18.491999999999997</v>
+      </c>
+      <c r="M17" s="5">
+        <f>-75.755-L17-K17</f>
+        <v>-35.314999999999998</v>
+      </c>
+      <c r="N17" s="5">
+        <f>-108.878-M17-L17-K17</f>
+        <v>-33.123000000000005</v>
+      </c>
+      <c r="O17" s="5">
+        <v>-19.184999999999999</v>
+      </c>
+      <c r="P17" s="5">
+        <f>-43.682-O17</f>
+        <v>-24.497000000000003</v>
       </c>
     </row>
   </sheetData>
